--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Nppa-Npr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Nppa-Npr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Nppa</t>
   </si>
   <si>
     <t>Npr1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.02684066666666667</v>
+        <v>0.110293</v>
       </c>
       <c r="H2">
-        <v>0.080522</v>
+        <v>0.330879</v>
       </c>
       <c r="I2">
-        <v>0.05858237377856383</v>
+        <v>0.1397687944778318</v>
       </c>
       <c r="J2">
-        <v>0.05858237377856382</v>
+        <v>0.1397687944778318</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.338583</v>
+        <v>55.59737033333334</v>
       </c>
       <c r="N2">
-        <v>91.015749</v>
+        <v>166.792111</v>
       </c>
       <c r="O2">
-        <v>0.8397901312392532</v>
+        <v>0.9022741440276701</v>
       </c>
       <c r="P2">
-        <v>0.8397901312392529</v>
+        <v>0.9022741440276703</v>
       </c>
       <c r="Q2">
-        <v>0.814307793442</v>
+        <v>6.132000766174333</v>
       </c>
       <c r="R2">
-        <v>7.328770140978</v>
+        <v>55.188006895569</v>
       </c>
       <c r="S2">
-        <v>0.0491968993638071</v>
+        <v>0.126109769399265</v>
       </c>
       <c r="T2">
-        <v>0.04919689936380708</v>
+        <v>0.126109769399265</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.02684066666666667</v>
+        <v>0.110293</v>
       </c>
       <c r="H3">
-        <v>0.080522</v>
+        <v>0.330879</v>
       </c>
       <c r="I3">
-        <v>0.05858237377856383</v>
+        <v>0.1397687944778318</v>
       </c>
       <c r="J3">
-        <v>0.05858237377856382</v>
+        <v>0.1397687944778318</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>16.391365</v>
       </c>
       <c r="O3">
-        <v>0.151240930451943</v>
+        <v>0.08867028983655055</v>
       </c>
       <c r="P3">
-        <v>0.151240930451943</v>
+        <v>0.08867028983655056</v>
       </c>
       <c r="Q3">
-        <v>0.1466517213922222</v>
+        <v>0.6026176066483333</v>
       </c>
       <c r="R3">
-        <v>1.31986549253</v>
+        <v>5.423558459835</v>
       </c>
       <c r="S3">
-        <v>0.008860052718353502</v>
+        <v>0.01239333951645461</v>
       </c>
       <c r="T3">
-        <v>0.008860052718353498</v>
+        <v>0.01239333951645461</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.02684066666666667</v>
+        <v>0.110293</v>
       </c>
       <c r="H4">
-        <v>0.080522</v>
+        <v>0.330879</v>
       </c>
       <c r="I4">
-        <v>0.05858237377856383</v>
+        <v>0.1397687944778318</v>
       </c>
       <c r="J4">
-        <v>0.05858237377856382</v>
+        <v>0.1397687944778318</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2948553333333333</v>
+        <v>0.4832879999999999</v>
       </c>
       <c r="N4">
-        <v>0.884566</v>
+        <v>1.449864</v>
       </c>
       <c r="O4">
-        <v>0.008161772060237412</v>
+        <v>0.007843145528366948</v>
       </c>
       <c r="P4">
-        <v>0.00816177206023741</v>
+        <v>0.00784314552836695</v>
       </c>
       <c r="Q4">
-        <v>0.007914113716888887</v>
+        <v>0.05330328338399998</v>
       </c>
       <c r="R4">
-        <v>0.07122702345199999</v>
+        <v>0.4797295504559999</v>
       </c>
       <c r="S4">
-        <v>0.0004781359815282671</v>
+        <v>0.001096226995414045</v>
       </c>
       <c r="T4">
-        <v>0.0004781359815282669</v>
+        <v>0.001096226995414046</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,46 +723,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.02684066666666667</v>
+        <v>0.110293</v>
       </c>
       <c r="H5">
-        <v>0.080522</v>
+        <v>0.330879</v>
       </c>
       <c r="I5">
-        <v>0.05858237377856383</v>
+        <v>0.1397687944778318</v>
       </c>
       <c r="J5">
-        <v>0.05858237377856382</v>
+        <v>0.1397687944778318</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02916</v>
+        <v>0.07470833333333333</v>
       </c>
       <c r="N5">
-        <v>0.08748</v>
+        <v>0.224125</v>
       </c>
       <c r="O5">
-        <v>0.0008071662485666065</v>
+        <v>0.001212420607412311</v>
       </c>
       <c r="P5">
-        <v>0.0008071662485666063</v>
+        <v>0.001212420607412311</v>
       </c>
       <c r="Q5">
-        <v>0.00078267384</v>
+        <v>0.008239806208333332</v>
       </c>
       <c r="R5">
-        <v>0.00704406456</v>
+        <v>0.074158255875</v>
       </c>
       <c r="S5">
-        <v>4.72857148749701E-05</v>
+        <v>0.0001694585666980992</v>
       </c>
       <c r="T5">
-        <v>4.728571487497009E-05</v>
+        <v>0.0001694585666980992</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>0.111884</v>
       </c>
       <c r="I6">
-        <v>0.08139924874991723</v>
+        <v>0.04726166302895539</v>
       </c>
       <c r="J6">
-        <v>0.08139924874991723</v>
+        <v>0.04726166302895539</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.338583</v>
+        <v>55.59737033333334</v>
       </c>
       <c r="N6">
-        <v>91.015749</v>
+        <v>166.792111</v>
       </c>
       <c r="O6">
-        <v>0.8397901312392532</v>
+        <v>0.9022741440276701</v>
       </c>
       <c r="P6">
-        <v>0.8397901312392529</v>
+        <v>0.9022741440276703</v>
       </c>
       <c r="Q6">
-        <v>1.131467340124</v>
+        <v>2.073485394124889</v>
       </c>
       <c r="R6">
-        <v>10.183206061116</v>
+        <v>18.661368547124</v>
       </c>
       <c r="S6">
-        <v>0.06835828579046961</v>
+        <v>0.04264297655477491</v>
       </c>
       <c r="T6">
-        <v>0.06835828579046958</v>
+        <v>0.04264297655477491</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>0.111884</v>
       </c>
       <c r="I7">
-        <v>0.08139924874991723</v>
+        <v>0.04726166302895539</v>
       </c>
       <c r="J7">
-        <v>0.08139924874991723</v>
+        <v>0.04726166302895539</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>16.391365</v>
       </c>
       <c r="O7">
-        <v>0.151240930451943</v>
+        <v>0.08867028983655055</v>
       </c>
       <c r="P7">
-        <v>0.151240930451943</v>
+        <v>0.08867028983655056</v>
       </c>
       <c r="Q7">
         <v>0.2037701646288889</v>
@@ -883,10 +883,10 @@
         <v>1.83393148166</v>
       </c>
       <c r="S7">
-        <v>0.01231089811902664</v>
+        <v>0.00419070535893486</v>
       </c>
       <c r="T7">
-        <v>0.01231089811902664</v>
+        <v>0.00419070535893486</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>0.111884</v>
       </c>
       <c r="I8">
-        <v>0.08139924874991723</v>
+        <v>0.04726166302895539</v>
       </c>
       <c r="J8">
-        <v>0.08139924874991723</v>
+        <v>0.04726166302895539</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2948553333333333</v>
+        <v>0.4832879999999999</v>
       </c>
       <c r="N8">
-        <v>0.884566</v>
+        <v>1.449864</v>
       </c>
       <c r="O8">
-        <v>0.008161772060237412</v>
+        <v>0.007843145528366948</v>
       </c>
       <c r="P8">
-        <v>0.00816177206023741</v>
+        <v>0.00784314552836695</v>
       </c>
       <c r="Q8">
-        <v>0.01099653137155555</v>
+        <v>0.018024064864</v>
       </c>
       <c r="R8">
-        <v>0.098968782344</v>
+        <v>0.162216583776</v>
       </c>
       <c r="S8">
-        <v>0.0006643621141713895</v>
+        <v>0.000370680101048737</v>
       </c>
       <c r="T8">
-        <v>0.0006643621141713894</v>
+        <v>0.0003706801010487371</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -977,40 +977,40 @@
         <v>0.111884</v>
       </c>
       <c r="I9">
-        <v>0.08139924874991723</v>
+        <v>0.04726166302895539</v>
       </c>
       <c r="J9">
-        <v>0.08139924874991723</v>
+        <v>0.04726166302895539</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.02916</v>
+        <v>0.07470833333333333</v>
       </c>
       <c r="N9">
-        <v>0.08748</v>
+        <v>0.224125</v>
       </c>
       <c r="O9">
-        <v>0.0008071662485666065</v>
+        <v>0.001212420607412311</v>
       </c>
       <c r="P9">
-        <v>0.0008071662485666063</v>
+        <v>0.001212420607412311</v>
       </c>
       <c r="Q9">
-        <v>0.00108751248</v>
+        <v>0.002786222388888889</v>
       </c>
       <c r="R9">
-        <v>0.00978761232</v>
+        <v>0.0250760015</v>
       </c>
       <c r="S9">
-        <v>6.570272624961073E-05</v>
+        <v>5.730101419688205E-05</v>
       </c>
       <c r="T9">
-        <v>6.570272624961072E-05</v>
+        <v>5.730101419688205E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1039,10 +1039,10 @@
         <v>1.182103</v>
       </c>
       <c r="I10">
-        <v>0.860018377471519</v>
+        <v>0.4993399740044802</v>
       </c>
       <c r="J10">
-        <v>0.8600183774715189</v>
+        <v>0.4993399740044802</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.338583</v>
+        <v>55.59737033333334</v>
       </c>
       <c r="N10">
-        <v>91.015749</v>
+        <v>166.792111</v>
       </c>
       <c r="O10">
-        <v>0.8397901312392532</v>
+        <v>0.9022741440276701</v>
       </c>
       <c r="P10">
-        <v>0.8397901312392529</v>
+        <v>0.9022741440276703</v>
       </c>
       <c r="Q10">
-        <v>11.954443326683</v>
+        <v>21.90727275438145</v>
       </c>
       <c r="R10">
-        <v>107.589989940147</v>
+        <v>197.165454789433</v>
       </c>
       <c r="S10">
-        <v>0.7222349460849765</v>
+        <v>0.4505415476236914</v>
       </c>
       <c r="T10">
-        <v>0.7222349460849762</v>
+        <v>0.4505415476236915</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1101,10 +1101,10 @@
         <v>1.182103</v>
       </c>
       <c r="I11">
-        <v>0.860018377471519</v>
+        <v>0.4993399740044802</v>
       </c>
       <c r="J11">
-        <v>0.8600183774715189</v>
+        <v>0.4993399740044802</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,10 +1119,10 @@
         <v>16.391365</v>
       </c>
       <c r="O11">
-        <v>0.151240930451943</v>
+        <v>0.08867028983655055</v>
       </c>
       <c r="P11">
-        <v>0.151240930451943</v>
+        <v>0.08867028983655056</v>
       </c>
       <c r="Q11">
         <v>2.152920193399445</v>
@@ -1131,10 +1131,10 @@
         <v>19.376281740595</v>
       </c>
       <c r="S11">
-        <v>0.1300699796145629</v>
+        <v>0.04427662022195288</v>
       </c>
       <c r="T11">
-        <v>0.1300699796145628</v>
+        <v>0.04427662022195288</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1163,10 +1163,10 @@
         <v>1.182103</v>
       </c>
       <c r="I12">
-        <v>0.860018377471519</v>
+        <v>0.4993399740044802</v>
       </c>
       <c r="J12">
-        <v>0.8600183774715189</v>
+        <v>0.4993399740044802</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.2948553333333333</v>
+        <v>0.4832879999999999</v>
       </c>
       <c r="N12">
-        <v>0.884566</v>
+        <v>1.449864</v>
       </c>
       <c r="O12">
-        <v>0.008161772060237412</v>
+        <v>0.007843145528366948</v>
       </c>
       <c r="P12">
-        <v>0.00816177206023741</v>
+        <v>0.00784314552836695</v>
       </c>
       <c r="Q12">
-        <v>0.1161831246997778</v>
+        <v>0.190432064888</v>
       </c>
       <c r="R12">
-        <v>1.045648122298</v>
+        <v>1.713888583992</v>
       </c>
       <c r="S12">
-        <v>0.007019273964537756</v>
+        <v>0.003916396084248108</v>
       </c>
       <c r="T12">
-        <v>0.007019273964537753</v>
+        <v>0.003916396084248108</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,13 +1204,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1225,40 +1225,288 @@
         <v>1.182103</v>
       </c>
       <c r="I13">
-        <v>0.860018377471519</v>
+        <v>0.4993399740044802</v>
       </c>
       <c r="J13">
-        <v>0.8600183774715189</v>
+        <v>0.4993399740044802</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.02916</v>
+        <v>0.07470833333333333</v>
       </c>
       <c r="N13">
-        <v>0.08748</v>
+        <v>0.224125</v>
       </c>
       <c r="O13">
-        <v>0.0008071662485666065</v>
+        <v>0.001212420607412311</v>
       </c>
       <c r="P13">
-        <v>0.0008071662485666063</v>
+        <v>0.001212420607412311</v>
       </c>
       <c r="Q13">
-        <v>0.01149004116</v>
+        <v>0.02943764831944445</v>
       </c>
       <c r="R13">
-        <v>0.10341037044</v>
+        <v>0.264938834875</v>
       </c>
       <c r="S13">
-        <v>0.0006941778074420257</v>
+        <v>0.0006054100745877594</v>
       </c>
       <c r="T13">
-        <v>0.0006941778074420255</v>
+        <v>0.0006054100745877594</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.2474883333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.742465</v>
+      </c>
+      <c r="I14">
+        <v>0.3136295684887327</v>
+      </c>
+      <c r="J14">
+        <v>0.3136295684887327</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>55.59737033333334</v>
+      </c>
+      <c r="N14">
+        <v>166.792111</v>
+      </c>
+      <c r="O14">
+        <v>0.9022741440276701</v>
+      </c>
+      <c r="P14">
+        <v>0.9022741440276703</v>
+      </c>
+      <c r="Q14">
+        <v>13.75970052151278</v>
+      </c>
+      <c r="R14">
+        <v>123.837304693615</v>
+      </c>
+      <c r="S14">
+        <v>0.2829798504499388</v>
+      </c>
+      <c r="T14">
+        <v>0.2829798504499389</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.2474883333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.742465</v>
+      </c>
+      <c r="I15">
+        <v>0.3136295684887327</v>
+      </c>
+      <c r="J15">
+        <v>0.3136295684887327</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.463788333333333</v>
+      </c>
+      <c r="N15">
+        <v>16.391365</v>
+      </c>
+      <c r="O15">
+        <v>0.08867028983655055</v>
+      </c>
+      <c r="P15">
+        <v>0.08867028983655056</v>
+      </c>
+      <c r="Q15">
+        <v>1.352223868302778</v>
+      </c>
+      <c r="R15">
+        <v>12.170014814725</v>
+      </c>
+      <c r="S15">
+        <v>0.02780962473920821</v>
+      </c>
+      <c r="T15">
+        <v>0.02780962473920821</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.2474883333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.742465</v>
+      </c>
+      <c r="I16">
+        <v>0.3136295684887327</v>
+      </c>
+      <c r="J16">
+        <v>0.3136295684887327</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.4832879999999999</v>
+      </c>
+      <c r="N16">
+        <v>1.449864</v>
+      </c>
+      <c r="O16">
+        <v>0.007843145528366948</v>
+      </c>
+      <c r="P16">
+        <v>0.00784314552836695</v>
+      </c>
+      <c r="Q16">
+        <v>0.11960814164</v>
+      </c>
+      <c r="R16">
+        <v>1.07647327476</v>
+      </c>
+      <c r="S16">
+        <v>0.00245984234765606</v>
+      </c>
+      <c r="T16">
+        <v>0.00245984234765606</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.2474883333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.742465</v>
+      </c>
+      <c r="I17">
+        <v>0.3136295684887327</v>
+      </c>
+      <c r="J17">
+        <v>0.3136295684887327</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.07470833333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.224125</v>
+      </c>
+      <c r="O17">
+        <v>0.001212420607412311</v>
+      </c>
+      <c r="P17">
+        <v>0.001212420607412311</v>
+      </c>
+      <c r="Q17">
+        <v>0.01848944090277778</v>
+      </c>
+      <c r="R17">
+        <v>0.166404968125</v>
+      </c>
+      <c r="S17">
+        <v>0.0003802509519295702</v>
+      </c>
+      <c r="T17">
+        <v>0.0003802509519295702</v>
       </c>
     </row>
   </sheetData>
